--- a/FitnessData/dynamic16/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic16/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251.27</v>
+        <v>269.94</v>
       </c>
       <c r="B2" t="n">
-        <v>275.67</v>
+        <v>263.04</v>
       </c>
       <c r="C2" t="n">
-        <v>281.27</v>
+        <v>263.74</v>
       </c>
       <c r="D2" t="n">
-        <v>263.89</v>
+        <v>257.5</v>
       </c>
       <c r="E2" t="n">
-        <v>290.25</v>
+        <v>295.67</v>
       </c>
       <c r="F2" t="n">
-        <v>274.91</v>
+        <v>258.17</v>
       </c>
       <c r="G2" t="n">
-        <v>273.7</v>
+        <v>269.93</v>
       </c>
       <c r="H2" t="n">
-        <v>268.23</v>
+        <v>259.09</v>
       </c>
       <c r="I2" t="n">
-        <v>279.21</v>
+        <v>263.57</v>
       </c>
       <c r="J2" t="n">
-        <v>273.49</v>
+        <v>269.67</v>
       </c>
       <c r="K2" t="n">
-        <v>251.24</v>
+        <v>265.37</v>
       </c>
       <c r="L2" t="n">
-        <v>277.14</v>
+        <v>261.3</v>
       </c>
       <c r="M2" t="n">
-        <v>252.58</v>
+        <v>256.99</v>
       </c>
       <c r="N2" t="n">
-        <v>276.98</v>
+        <v>260.6</v>
       </c>
       <c r="O2" t="n">
-        <v>281.57</v>
+        <v>249.6</v>
       </c>
       <c r="P2" t="n">
-        <v>259.1</v>
+        <v>249.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.48</v>
+        <v>269.97</v>
       </c>
       <c r="R2" t="n">
-        <v>259.11</v>
+        <v>256.28</v>
       </c>
       <c r="S2" t="n">
-        <v>273.91</v>
+        <v>260.49</v>
       </c>
       <c r="T2" t="n">
-        <v>268.47</v>
+        <v>265.98</v>
       </c>
       <c r="U2" t="n">
-        <v>251.24</v>
+        <v>249.6</v>
       </c>
       <c r="V2" t="n">
-        <v>269.2234999999999</v>
+        <v>263.341</v>
       </c>
       <c r="W2" t="n">
-        <v>11.54894812936385</v>
+        <v>9.69366309557571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>544.78</v>
+        <v>565.34</v>
       </c>
       <c r="B3" t="n">
-        <v>588.83</v>
+        <v>508.87</v>
       </c>
       <c r="C3" t="n">
-        <v>537.28</v>
+        <v>500.73</v>
       </c>
       <c r="D3" t="n">
-        <v>559.5</v>
+        <v>489.82</v>
       </c>
       <c r="E3" t="n">
-        <v>536.67</v>
+        <v>557.15</v>
       </c>
       <c r="F3" t="n">
-        <v>561.89</v>
+        <v>505.44</v>
       </c>
       <c r="G3" t="n">
-        <v>533.74</v>
+        <v>516.15</v>
       </c>
       <c r="H3" t="n">
-        <v>569.24</v>
+        <v>507.82</v>
       </c>
       <c r="I3" t="n">
-        <v>559.6799999999999</v>
+        <v>520.49</v>
       </c>
       <c r="J3" t="n">
-        <v>555.8200000000001</v>
+        <v>550.54</v>
       </c>
       <c r="K3" t="n">
-        <v>536.48</v>
+        <v>546.9400000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>587</v>
+        <v>502.3</v>
       </c>
       <c r="M3" t="n">
-        <v>562.84</v>
+        <v>545.0700000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>550.98</v>
+        <v>470.28</v>
       </c>
       <c r="O3" t="n">
-        <v>569.97</v>
+        <v>533.64</v>
       </c>
       <c r="P3" t="n">
-        <v>560.88</v>
+        <v>554.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>519.55</v>
+        <v>491.44</v>
       </c>
       <c r="R3" t="n">
-        <v>549.1799999999999</v>
+        <v>541.67</v>
       </c>
       <c r="S3" t="n">
-        <v>564.3</v>
+        <v>560.79</v>
       </c>
       <c r="T3" t="n">
-        <v>546.26</v>
+        <v>535.48</v>
       </c>
       <c r="U3" t="n">
-        <v>519.55</v>
+        <v>470.28</v>
       </c>
       <c r="V3" t="n">
-        <v>554.7434999999998</v>
+        <v>525.1985000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>17.47087057602485</v>
+        <v>27.41549317544063</v>
       </c>
     </row>
   </sheetData>
